--- a/Exemplo Inserir NFs.xlsx
+++ b/Exemplo Inserir NFs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NetBeansProjects\Java-SCI-InsertBulkFiscalEntries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admnistrador\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C09672-F2E4-4A31-AF37-4E507465F4DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9049F50-9A83-4506-8808-3ED24B01780F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{797B3D43-8E00-460A-B247-60433B40A752}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>CNPJ</t>
   </si>
@@ -66,7 +66,13 @@
     <t>Discriminação</t>
   </si>
   <si>
-    <t>12345678912345</t>
+    <t>74873266000185</t>
+  </si>
+  <si>
+    <t>Teste de XML</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -125,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -139,10 +145,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,20 +474,20 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="10.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="8" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" style="1" customWidth="1"/>
+    <col min="6" max="10" width="10.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11" style="8" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -485,37 +497,37 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -523,18 +535,42 @@
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43908</v>
+      </c>
+      <c r="D2" s="8">
+        <v>123.56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8">
+        <v>11.11</v>
+      </c>
+      <c r="G2" s="8">
+        <v>22.22</v>
+      </c>
+      <c r="H2" s="8">
+        <v>33.33</v>
+      </c>
+      <c r="I2" s="8">
+        <v>44.44</v>
+      </c>
+      <c r="J2" s="8">
+        <v>55.55</v>
+      </c>
+      <c r="K2" s="8">
+        <v>66.66</v>
+      </c>
+      <c r="L2" s="8">
+        <v>77.77</v>
+      </c>
+      <c r="M2" s="8">
+        <v>999.99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
